--- a/external data/Atkinson et al 2018/Supplemental_Table_S2.xlsx
+++ b/external data/Atkinson et al 2018/Supplemental_Table_S2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jurg\Desktop\RNA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/zcbtkov_ucl_ac_uk/Documents/MSci Bahler lab/S.-Pombe-biofilm/external data/Atkinson et al 2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_DE9CB2CBFECA3B316E68E840FB15FD2CFD377652" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="9330"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="23940" windowHeight="9340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table S2" sheetId="3" r:id="rId1"/>
@@ -342,7 +343,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -911,7 +912,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -920,17 +921,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -998,8 +992,8 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="62"/>
-    <cellStyle name="Normal 3" xfId="63"/>
+    <cellStyle name="Normal 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Normal 3" xfId="63" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -1281,31 +1275,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="52.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="52.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:8" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1331,349 +1325,349 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>2</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>1</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="6">
         <v>1</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="6">
         <v>2</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>2</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>2</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>2</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>2</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>2</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>2</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>2</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>2</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>2</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="3:3" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C17" s="3"/>
     </row>
-    <row r="22" spans="3:3" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="3:3" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="3:3" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="3:3" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
